--- a/crm接口文档/客户管理/修改客户信息.xlsx
+++ b/crm接口文档/客户管理/修改客户信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14685" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,19 +107,19 @@
     <t>客户姓名</t>
   </si>
   <si>
-    <t>cusLevelId</t>
+    <t>cusLevel</t>
+  </si>
+  <si>
+    <t>客户级别</t>
+  </si>
+  <si>
+    <t>cusSource</t>
   </si>
   <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>客户级别Id</t>
-  </si>
-  <si>
-    <t>cusSourceId</t>
-  </si>
-  <si>
-    <t>客户来源Id</t>
+    <t>客户来源</t>
   </si>
   <si>
     <t>cusMobile</t>
@@ -203,9 +203,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -260,20 +260,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -282,6 +268,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -290,21 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,7 +330,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,82 +403,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -437,187 +437,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,32 +698,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -748,6 +722,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -766,17 +760,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,16 +800,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,115 +818,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:H12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1525,10 +1525,10 @@
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
       <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>26</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="22"/>
@@ -1542,12 +1542,12 @@
         <v>17</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>28</v>

--- a/crm接口文档/客户管理/修改客户信息.xlsx
+++ b/crm接口文档/客户管理/修改客户信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,9 +202,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -262,7 +262,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,9 +275,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +329,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -299,45 +373,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,53 +398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,19 +443,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,145 +569,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,21 +684,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -716,8 +701,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,30 +766,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -788,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,133 +800,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/crm接口文档/客户管理/修改客户信息.xlsx
+++ b/crm接口文档/客户管理/修改客户信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <t>cusLevel</t>
   </si>
   <si>
-    <t>客户级别</t>
+    <t>客户级别(枚举项，enumType=CUS_LEVEL)</t>
   </si>
   <si>
     <t>cusSource</t>
@@ -119,7 +119,7 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>客户来源</t>
+    <t>客户来源(枚举项，enumType=CUS_SOURCE)</t>
   </si>
   <si>
     <t>cusMobile</t>
@@ -137,7 +137,7 @@
     <t>cusSex</t>
   </si>
   <si>
-    <t>客户性别 男 女</t>
+    <t>客户性别(枚举项，enumType=SEX)</t>
   </si>
   <si>
     <t>cusTelephone</t>
@@ -202,10 +202,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -262,21 +262,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +284,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -299,15 +367,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,29 +383,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,48 +397,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,19 +437,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,19 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,139 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,26 +683,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,6 +731,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -753,15 +753,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,6 +771,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -788,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,133 +800,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1365,13 +1365,14 @@
   <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>

--- a/crm接口文档/客户管理/修改客户信息.xlsx
+++ b/crm接口文档/客户管理/修改客户信息.xlsx
@@ -21,7 +21,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>/qiuxx/crm/10010/200</t>
+    <t>/crm/10010/200</t>
   </si>
   <si>
     <t>接口描述</t>
@@ -260,6 +260,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -268,6 +327,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -276,133 +397,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -437,31 +437,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,151 +599,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,20 +683,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,28 +728,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,8 +755,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,133 +800,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
